--- a/src/main/resources/Training_Plan.xlsx
+++ b/src/main/resources/Training_Plan.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Java Core" sheetId="2" r:id="rId2"/>
-    <sheet name="Spring" sheetId="3" r:id="rId3"/>
+    <sheet name="SOAP WS" sheetId="3" r:id="rId3"/>
+    <sheet name="RESTful WS" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="jaxrs_intro" localSheetId="3">'RESTful WS'!$B$6</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="260">
   <si>
     <t>Java core</t>
   </si>
@@ -2932,85 +2936,6 @@
   </si>
   <si>
     <t>Why ConcurentHashMap?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">With ConcurrentHashMap, now you have better choice; because, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not only it can be safely used</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in concurrent multi-threaded environment but also </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>provides better performance over Hashtable and synchronizedMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. ConcurrentHashMap performs better than earlier two because </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">it only locks a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>partion of Map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, instead of whole Map, which is the case with Hashtable and synchronized Map. CHM allows concurred read operations and same time, maintains integrity by synchronizing write operations. </t>
-    </r>
   </si>
   <si>
     <t>How ConcurrentHashMap is implemented in Java?</t>
@@ -3143,12 +3068,1546 @@
  - Default concurrency level is 16 and can be changed, by providing a number which make sense and work for you while creating ConcurrentHashMap</t>
     </r>
   </si>
+  <si>
+    <t>When to use ConcurrentHashMap in Java?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - ConcurrentHashMap is best suited when you have</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> multiple readers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>few</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> writers. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">If writers outnumber reader, or writer is equal to reader, then performance of ConcurrentHashMap effectively reduces to synchronized map or Hashtable. 
+ - Performance of CHM drops, because you got to lock all portion of Map, and effectively each reader will wait for another writer, operating on that portion of Map. 
+ - ConcurrentHashMap is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>good choice for caches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which can be initialized during application start up and later accessed by many request processing threads. As javadoc states, CHM is also a good replacement of Hashtable and should be used whenever possible, keeping in mind, that CHM provides slightly weeker form of synchronization than Hashtable.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Choose concurrency level carefully as a significant higher number can be waste of time and space and lower number may introduce thread contention in case writers over number concurrency level.</t>
+  </si>
+  <si>
+    <t>9. You can use ConcurrentHashMap in place of Hashtable but with caution as CHM doesn't lock whole Map.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10. During putAll() and clear() operations, concurrent read may only reflect insertion or deletion of some entries.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. ConcurrentHashMap allows concurrent read and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thread-safe update operation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 2. During update operation, ConcurrentHashMap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>only lock a portion of Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of whole Map.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With ConcurrentHashMap, now you have better choice; because, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not only it can be safely used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in concurrent multi-threaded environment but also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provides better performance over Hashtable and synchronizedMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. ConcurrentHashMap performs better than earlier two because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">it only locks a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portion of Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, instead of whole Map, which is the case with Hashtable and synchronized Map. CHM allows concurred read operations and same time, maintains integrity by synchronizing write operations. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Concurrent update is achieved by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>internally dividing Map into small portion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which is defined by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concurrency level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All operations </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of ConcurrentHashMap are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thread-safe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 6. Since ConcurrentHashMap implementation doesn't lock whole Map, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>there is chance of read overlapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with update operations like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put() and remove()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In that case result returned by get() method will reflect most recently completed operation from there start.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Iterator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returned by ConcurrentHashMap is weekly consistent, fail safe and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> never throw ConcurrentModificationException</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In Java</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. ConcurrentHashMap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doesn't allow null as key or value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Java Inner Class</t>
+  </si>
+  <si>
+    <t>Advantage of java inner classes</t>
+  </si>
+  <si>
+    <r>
+      <t>There are basically three advantages of inner classes in java. They are as follows:
+1) Nested classes represent a special type of relationship that is it</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can access all the members (data members and methods) of outer class including private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+2) Nested classes are used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">develop more readable and maintainable code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">because it logically group classes and interfaces in one place only.
+3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Code Optimization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It requires less code to write.</t>
+    </r>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Member Inner Class</t>
+  </si>
+  <si>
+    <t>A class created within class and outside method.</t>
+  </si>
+  <si>
+    <t>Annonymous Inner Class</t>
+  </si>
+  <si>
+    <t>A class created for implementing interface or extending class. Its name is decided by the java compiler.</t>
+  </si>
+  <si>
+    <t>Local Inner Class</t>
+  </si>
+  <si>
+    <t>A class created within method.</t>
+  </si>
+  <si>
+    <t>Static Nested Class</t>
+  </si>
+  <si>
+    <t>A static class created within class.</t>
+  </si>
+  <si>
+    <t>Nested Interface</t>
+  </si>
+  <si>
+    <t>An interface created within class or interface.</t>
+  </si>
+  <si>
+    <t>Annonymous inner class</t>
+  </si>
+  <si>
+    <t>Annonymous class can be created by:
+    Class (may be abstract class also).
+    Interface</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A class that is created inside a method is known as local inner class. If you want to invoke the methods of local inner class, you must instantiate this class inside the method.
+1) Local inner class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot be invoked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outside the method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+2) Local inner class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-final local variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>static nested class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A static class that is created inside a class is known as static nested class. It </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-static members</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+    - It </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can access</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data members of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outer class including private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+    - static nested class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot access non-static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (instance) data member or method.</t>
+    </r>
+  </si>
+  <si>
+    <t>What to do?</t>
+  </si>
+  <si>
+    <t>Create a POJO(Plain old java object) class, and annotate it with WebService</t>
+  </si>
+  <si>
+    <t>Deployment on to a servlet-container</t>
+  </si>
+  <si>
+    <t>Create/Edit the web application deployment descriptor(web.xml) with the following content.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;web-app xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://java.sun.com/xml/ns/javaee" xmlns:web="http://java.sun.com/xml/ns/javaee/web-app_2_5.xsd" xsi:schemaLocation="http://java.sun.com/xml/ns/javaee http://java.sun.com/xml/ns/javaee/web-app_3_0.xsd" version="3.0"&gt;
+&lt;display-name&gt;SimpleWebService&lt;/display-name&gt;
+&lt;listener&gt;
+&lt;listener-class&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.sun.xml.ws.transport.http.servlet.WSServletContextListener&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/listener-class&gt;
+&lt;/listener&gt;
+&lt;servlet&gt;
+&lt;servlet-name&gt;SimpleWebService&lt;/servlet-name&gt;
+&lt;servlet-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class&gt;com.sun.xml.ws.transport.http.servlet.WSServlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/servlet-class&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;load-on-startup&gt;1&lt;/load-on-startup&gt;
+&lt;/servlet&gt;
+&lt;servlet-mapping&gt;
+&lt;servlet-name&gt;SimpleWebService&lt;/servlet-name&gt;
+&lt;url-pattern&gt;/SimpleWebService&lt;/url-pattern&gt;
+&lt;/servlet-mapping&gt;
+&lt;/web-app&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>What's WSServletContenxtListener?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The listener class(com.sun.xml.ws.transport.http.servlet.WSServletContextListener) 
+ - Is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>web service context listener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initializing the web service context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when the application context is initialized 
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creating a web service delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all future </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>web service requests</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and route them </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to appropriate end point implementation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> defined in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sun-jaxws.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+ - This stores the created delegate in the container servlet context, so that the delegate can be accessed by other servlets.</t>
+    </r>
+  </si>
+  <si>
+    <t>What's WSServlet?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The servlet definition and it’s mapping is used to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intercept the url-pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>considered as web service request.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dispatching servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that routes the request</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to appropriate implementation class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through the delegate received from the servlet context created by the listener as stated above.</t>
+    </r>
+  </si>
+  <si>
+    <t>The structure of sun-jaxws.xml descriptor??</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;endpoints
+xmlns="http://java.sun.com/xml/ns/jax-ws/ri/runtime"
+version="2.0"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;endpoint
+name="SimpleWebService"
+implementation="com.accrd.blog.ws.jaxws.sample.SimpleWebService"
+url-pattern="/SimpleWebService" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/endpoints&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Each endpoint definition, in this descriptor indicates:
+ - The name of the web service
+ - Implementation class 
+ - Url-pattern that routes to this web service invocation.
+This is read by the context listener and handed-over to the web service delegate created by it, so that the delegate knows which implementation class to invoke when a web service request came-in.</t>
+  </si>
+  <si>
+    <t>RESTFul web services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A RESTFul web services are based on HTTP methods and the concept of REST. A RESTFul web service typically defines:
+ - The base URI for the services
+ - The supported MIME-types (XML, text, JSON, user-defined, ...)
+ - The set of operations (POST, GET, PUT, DELETE) which are supported.
+</t>
+  </si>
+  <si>
+    <t>Simple Object Access Protocol (SOAP) is a standard protocol specification for message exchange based on XML. Communication between the web service and client happens using XML messages.</t>
+  </si>
+  <si>
+    <t>What's SOAP?</t>
+  </si>
+  <si>
+    <t>JAX-RS with Jersey</t>
+  </si>
+  <si>
+    <t>What's JAX-RS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Java defines REST support via the Java Specification Request (JSR) 311. This specification is called JAX-RS (The Java API for RESTful Web Services). JAX-RS uses annotations to define the REST relevance of Java classes.</t>
+  </si>
+  <si>
+    <t>What's Jersey?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - Jersey is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reference implementation for the JSR 311</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> specification
+ - Provides a library to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implement Restful webservices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java servlet container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - On the server side Jersey </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>servlet implementation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">scans predefined classes to identify RESTful resources.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In your web.xml configuration file, you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">servlet for your web application
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The Jersey implementation also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provides a client library</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">communicate with a RESTful </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webservice.
+ - This servlet analyzes the incoming HTTP request and selects the correct class and method to respond to this request</t>
+    </r>
+  </si>
+  <si>
+    <t>How to define  Jersey Servlet dispatcher?</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;web-app xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://java.sun.com/xml/ns/javaee" xsi:schemaLocation="http://java.sun.com/xml/ns/javaee http://java.sun.com/xml/ns/javaee/web-app_3_0.xsd" id="WebApp_ID" version="3.0"&gt;
+  &lt;display-name&gt;com.vogella.jersey.first&lt;/display-name&gt;
+ &lt;servlet&gt;
+    &lt;servlet-name&gt;Jersey REST Service&lt;/servlet-name&gt;
+    &lt;servlet-class&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>org.glassfish.jersey.servlet.ServletContainer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/servlet-class&gt;
+     &lt;!-- Register resources and providers under com.vogella.jersey.first package. --&gt;
+    &lt;init-param&gt;
+        &lt;param-name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jersey.config.server.provider.package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s&lt;/param-name&gt;
+        &lt;param-value&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.vogella.jersey.first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/param-value&gt;
+    &lt;/init-param&gt;
+    &lt;load-on-startup&gt;1&lt;/load-on-startup&gt;
+  &lt;/servlet&gt;
+  &lt;servlet-mapping&gt;
+    &lt;servlet-name&gt;Jersey REST Service&lt;/servlet-name&gt;
+    &lt;url-pattern&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/rest/*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/url-pattern&gt;
+  &lt;/servlet-mapping&gt;
+&lt;/web-app&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>What's jersey.config.server.provider.packages?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Defines in which package Jersey will look for the web service classes. 
+ - This property must point to your resources classes. 
+ - The URL pattern defines the part of the base URL your application will be placed.
+</t>
+  </si>
+  <si>
+    <t>CRUD RESTful webservice</t>
+  </si>
+  <si>
+    <t>CRUD (Create, Read, Update, Delete) restful web service. It will allow to maintain a list of TODOs in your web application via HTTP calls.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3213,6 +4672,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3291,7 +4780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3342,6 +4831,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3363,6 +4864,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3378,13 +4886,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3709,7 +5217,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4168,10 +5676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E121"/>
+  <dimension ref="B2:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4263,971 +5771,1187 @@
     </row>
     <row r="10" spans="2:5" ht="31.5">
       <c r="B10" s="22" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="19" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="18.75">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="165">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="D14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>49</v>
+      <c r="D15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45">
+      <c r="D16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30">
+      <c r="D17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="D18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="63.75">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="18.75">
+      <c r="C19" s="39"/>
+      <c r="D19" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="78.75">
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="C20" s="39"/>
+      <c r="D20" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="93.75">
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="32"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="30">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="2:5" ht="31.5">
+      <c r="B23" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="45">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="30">
+      <c r="B25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18.75">
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="18.75">
+      <c r="D27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="20"/>
+      <c r="D28" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="34"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="D29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="45">
+      <c r="D30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="30">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>98</v>
+      <c r="D31" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="D32" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="18.75">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="D33" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="30">
+      <c r="D34" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>106</v>
+      <c r="D35" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" ht="18.75">
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="30">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="30"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="D38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="45">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>62</v>
+      <c r="D39" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="30">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="14" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="18.75">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="D41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="D42" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="D43" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>73</v>
+        <v>97</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="31"/>
+        <v>99</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="14" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="14" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="30">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="14" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="51" spans="2:5" ht="31.5">
-      <c r="B51" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="60">
+    <row r="50" spans="2:5" ht="18.75">
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="45">
+      <c r="D52" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="60">
+      <c r="D53" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="45">
+      <c r="D54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="45">
+      <c r="D55" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="30">
+      <c r="D56" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="30">
+      <c r="D57" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="120">
+      <c r="D58" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="35"/>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="60">
+      <c r="D59" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="31.5">
-      <c r="B62" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="225">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="30">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="90">
+      <c r="D60" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="64" spans="2:5" ht="31.5">
+      <c r="B64" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="60">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>133</v>
+        <v>111</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="45">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>138</v>
+        <v>113</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="60">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="90">
+      <c r="D67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="45">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="30">
+        <v>116</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="45">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>142</v>
+        <v>115</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="30">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="60">
+        <v>117</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="30">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" ht="90">
+        <v>123</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="120">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>148</v>
+        <v>125</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="60">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="21"/>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="21"/>
-    </row>
-    <row r="76" spans="2:5">
+        <v>127</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="31.5">
+      <c r="B75" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="225">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" spans="2:5">
+      <c r="D76" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="30">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="21"/>
-    </row>
-    <row r="78" spans="2:5">
+      <c r="D77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="90">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" spans="2:5">
+      <c r="D78" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="45">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="21"/>
-    </row>
-    <row r="80" spans="2:5">
+      <c r="D79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="60">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="26"/>
-    </row>
-    <row r="81" spans="2:5">
+      <c r="D80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="90">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:5">
+      <c r="D81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="30">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:5">
+      <c r="D82" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="30">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="D83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="60">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:5" ht="60">
+      <c r="D84" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="90">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="75">
+        <v>147</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="60">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="60">
+        <v>149</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="45">
+      <c r="D87" s="2"/>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88" spans="2:5">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>168</v>
-      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="21"/>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="75">
+      <c r="D89" s="2"/>
+      <c r="E89" s="21"/>
+    </row>
+    <row r="90" spans="2:5">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" ht="135">
+      <c r="D90" s="2"/>
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91" spans="2:5">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="90">
+      <c r="D91" s="2"/>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="92" spans="2:5">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" ht="45">
+      <c r="D92" s="2"/>
+      <c r="E92" s="21"/>
+    </row>
+    <row r="93" spans="2:5">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>178</v>
-      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="26"/>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" ht="30">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="2:5">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>182</v>
-      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E96" s="26"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="2:5" ht="60">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="26" t="s">
-        <v>186</v>
+      <c r="D98" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="75">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="26" t="s">
-        <v>188</v>
+      <c r="D99" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="60">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="26" t="s">
-        <v>190</v>
+      <c r="D100" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="45">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="26" t="s">
-        <v>192</v>
+      <c r="D101" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="31.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
       <c r="B102" s="2"/>
-      <c r="C102" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="26"/>
-    </row>
-    <row r="103" spans="2:5" ht="105">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="75">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="120">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="135">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="255">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="90">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" ht="45">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="26"/>
-    </row>
-    <row r="108" spans="2:5" ht="31.5">
-      <c r="C108" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="90">
+      <c r="D106" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="30">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="90">
+        <v>183</v>
+      </c>
+      <c r="E109" s="26"/>
+    </row>
+    <row r="110" spans="2:5">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" ht="105">
+      <c r="D110" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" ht="90">
+      <c r="D111" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>158</v>
+      <c r="D112" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="21"/>
+      <c r="D113" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="21"/>
-    </row>
-    <row r="115" spans="2:5">
+      <c r="D114" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="31.5">
       <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="22" t="s">
+        <v>194</v>
+      </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="21"/>
-    </row>
-    <row r="116" spans="2:5">
+      <c r="E115" s="26"/>
+    </row>
+    <row r="116" spans="2:5" ht="105">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="21"/>
-    </row>
-    <row r="117" spans="2:5">
+      <c r="D116" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="120">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="21"/>
-    </row>
-    <row r="118" spans="2:5">
+      <c r="D117" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="255">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="21"/>
-    </row>
-    <row r="119" spans="2:5">
+      <c r="D118" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="180">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="21"/>
-    </row>
-    <row r="120" spans="2:5">
+      <c r="D119" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="30">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="21"/>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="E121" s="27"/>
+      <c r="D120" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E120" s="28"/>
+    </row>
+    <row r="121" spans="2:5" ht="30">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E121" s="28"/>
+    </row>
+    <row r="122" spans="2:5" ht="30">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" s="28"/>
+    </row>
+    <row r="123" spans="2:5" ht="45">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E123" s="28"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E124" s="28"/>
+    </row>
+    <row r="125" spans="2:5" ht="60">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E125" s="28"/>
+    </row>
+    <row r="126" spans="2:5" ht="30">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E126" s="28"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E127" s="28"/>
+    </row>
+    <row r="128" spans="2:5" ht="30">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E128" s="28"/>
+    </row>
+    <row r="129" spans="2:5" ht="30">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E129" s="28"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="26"/>
+    </row>
+    <row r="132" spans="2:5" ht="31.5">
+      <c r="C132" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="90">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="90">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="105">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="90">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="21"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="21"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="21"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="21"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="21"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="21"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="21"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="21"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5237,21 +6961,273 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5"/>
+  <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="65.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" customWidth="1"/>
+    <col min="3" max="3" width="86.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" ht="30" customHeight="1"/>
+    <row r="3" spans="2:3">
+      <c r="B3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="45">
+      <c r="B4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3" ht="315">
+      <c r="B7" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="105">
+      <c r="B8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="60">
+      <c r="B9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="165">
+      <c r="B10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="105">
+      <c r="B11" s="2"/>
+      <c r="C11" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="67.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="90.75">
+      <c r="B3" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="23.25">
+      <c r="B4" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3" ht="45">
+      <c r="B5" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="135">
+      <c r="B6" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="315">
+      <c r="B7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="60">
+      <c r="B8" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="31.5">
+      <c r="B9" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>